--- a/Cond1_Resting_EEG_trials.xlsx
+++ b/Cond1_Resting_EEG_trials.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\Documents\GitHub\restingStatePresentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>Anweisung</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Instruction_leave_open.wav</t>
+  </si>
+  <si>
+    <t>Triggers</t>
   </si>
 </sst>
 </file>
@@ -390,88 +393,115 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="29.54296875" customWidth="1"/>
-    <col min="2" max="2" width="15.26953125" customWidth="1"/>
+    <col min="2" max="2" width="25.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>1</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>1</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>2</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Cond1_Resting_EEG_trials.xlsx
+++ b/Cond1_Resting_EEG_trials.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\Documents\GitHub\restingStatePresentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\restingStatePresentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93941954-7748-4CDE-990F-4665FFA7DC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23010" yWindow="2070" windowWidth="19650" windowHeight="12990"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -182,6 +183,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -217,6 +235,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -392,20 +427,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.9296875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="29.54296875" customWidth="1"/>
-    <col min="2" max="2" width="25.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.53125" customWidth="1"/>
+    <col min="2" max="2" width="25.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -416,7 +451,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -427,7 +462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -438,7 +473,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -446,10 +481,10 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -460,7 +495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -471,7 +506,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -482,7 +517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -490,10 +525,10 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>2</v>
       </c>

--- a/Cond1_Resting_EEG_trials.xlsx
+++ b/Cond1_Resting_EEG_trials.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\restingStatePresentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93941954-7748-4CDE-990F-4665FFA7DC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F8DAA4-3591-4B28-A8CB-D195350721B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,22 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
-  <si>
-    <t>Anweisung</t>
-  </si>
-  <si>
-    <t>audio\auf.wav</t>
-  </si>
-  <si>
-    <t>audio\zu.wav</t>
-  </si>
-  <si>
-    <t>audio\zu_lassen.wav</t>
-  </si>
-  <si>
-    <t>audio\auf_lassen.wav</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>Instruction_open.wav</t>
   </si>
@@ -108,9 +93,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -148,9 +133,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -183,26 +168,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -235,26 +203,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -428,114 +379,86 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.9296875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="29.53125" customWidth="1"/>
-    <col min="2" max="2" width="25.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>4</v>
       </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8">
+      <c r="B8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>2</v>
       </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9">
+      <c r="B9">
         <v>2</v>
       </c>
     </row>
